--- a/01_Production_quantities/Pulp and Paper/Pulp&paper_production.xlsx
+++ b/01_Production_quantities/Pulp and Paper/Pulp&paper_production.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge37kog\bwSyncShare\Follow ETSAP\Veröffentlichungen\Materials and energy demands 2018\Publication\ANNEX\01_Production_quantities\Pulp and Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBFC0A2-6C6C-41A7-AA4F-027BA012A031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33593FE-B1E7-4B5A-B223-F55BB4863857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25310" yWindow="-5170" windowWidth="25420" windowHeight="15250" activeTab="1" xr2:uid="{F3D5B04F-641E-4BC3-A7C5-40B65CB08A9D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F3D5B04F-641E-4BC3-A7C5-40B65CB08A9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Pulp" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="191">
   <si>
     <t>Angola</t>
   </si>
@@ -298,9 +298,6 @@
     <t>Hungary</t>
   </si>
   <si>
-    <t>Kosovo</t>
-  </si>
-  <si>
     <t>North Macedonia</t>
   </si>
   <si>
@@ -544,9 +541,6 @@
     <t>Sweden</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
     <t>Graphical paper</t>
   </si>
   <si>
@@ -614,6 +608,9 @@
   </si>
   <si>
     <t>Food and Agriculture Orgization of the United Nations. Forestry Production and Trade. Available at https://www.fao.org/faostat/en/#data/FO (2023).</t>
+  </si>
+  <si>
+    <t>Country / Region</t>
   </si>
 </sst>
 </file>
@@ -1079,10 +1076,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:V180"/>
+  <dimension ref="A1:V179"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1101,21 +1098,21 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>185</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
@@ -2431,7 +2428,7 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B53" s="3">
         <v>973</v>
@@ -2509,7 +2506,7 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B56" s="3">
         <v>1814.423</v>
@@ -3263,7 +3260,7 @@
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B85" s="3">
         <v>28888.681</v>
@@ -3454,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="D92" s="6">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
@@ -3480,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="D93" s="6">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
@@ -3500,13 +3497,13 @@
         <v>88</v>
       </c>
       <c r="B94" s="3">
-        <v>0</v>
+        <v>961.48900000000003</v>
       </c>
       <c r="C94" s="3">
-        <v>0</v>
+        <v>702.4</v>
       </c>
       <c r="D94" s="6">
-        <v>11</v>
+        <v>2892.3</v>
       </c>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
@@ -3526,13 +3523,13 @@
         <v>89</v>
       </c>
       <c r="B95" s="3">
-        <v>961.48900000000003</v>
+        <v>0</v>
       </c>
       <c r="C95" s="3">
-        <v>702.4</v>
+        <v>0</v>
       </c>
       <c r="D95" s="6">
-        <v>2892.3</v>
+        <v>197</v>
       </c>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
@@ -3552,13 +3549,13 @@
         <v>90</v>
       </c>
       <c r="B96" s="3">
-        <v>0</v>
+        <v>670.86099999999999</v>
       </c>
       <c r="C96" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D96" s="6">
-        <v>197</v>
+        <v>395</v>
       </c>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
@@ -3578,13 +3575,13 @@
         <v>91</v>
       </c>
       <c r="B97" s="3">
-        <v>670.86099999999999</v>
+        <v>0</v>
       </c>
       <c r="C97" s="3">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="D97" s="6">
-        <v>395</v>
+        <v>354</v>
       </c>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
@@ -3601,16 +3598,16 @@
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="B98" s="3">
-        <v>0</v>
+        <v>2288.422</v>
       </c>
       <c r="C98" s="3">
-        <v>92</v>
+        <v>858.96299999999997</v>
       </c>
       <c r="D98" s="6">
-        <v>354</v>
+        <v>5593.0839999999998</v>
       </c>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
@@ -3627,16 +3624,16 @@
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="B99" s="3">
-        <v>2288.422</v>
+        <v>0</v>
       </c>
       <c r="C99" s="3">
-        <v>858.96299999999997</v>
+        <v>0</v>
       </c>
       <c r="D99" s="6">
-        <v>5593.0839999999998</v>
+        <v>0</v>
       </c>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
@@ -3682,13 +3679,13 @@
         <v>94</v>
       </c>
       <c r="B101" s="3">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C101" s="3">
         <v>0</v>
       </c>
       <c r="D101" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
@@ -3708,13 +3705,13 @@
         <v>95</v>
       </c>
       <c r="B102" s="3">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C102" s="3">
-        <v>0</v>
+        <v>164.95599999999999</v>
       </c>
       <c r="D102" s="6">
-        <v>30</v>
+        <v>96.082999999999998</v>
       </c>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
@@ -3734,13 +3731,13 @@
         <v>96</v>
       </c>
       <c r="B103" s="3">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C103" s="3">
-        <v>164.95599999999999</v>
+        <v>0</v>
       </c>
       <c r="D103" s="6">
-        <v>96.082999999999998</v>
+        <v>11</v>
       </c>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
@@ -3766,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="D104" s="6">
-        <v>11</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
@@ -3792,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="D105" s="6">
-        <v>37.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
@@ -3818,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="D106" s="6">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
@@ -3844,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="D107" s="6">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
@@ -3870,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="D108" s="6">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
@@ -3896,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="D109" s="6">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
@@ -3913,16 +3910,16 @@
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="B110" s="3">
-        <v>0</v>
+        <v>6159</v>
       </c>
       <c r="C110" s="3">
-        <v>0</v>
+        <v>2420</v>
       </c>
       <c r="D110" s="6">
-        <v>500</v>
+        <v>3450</v>
       </c>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
@@ -3939,16 +3936,16 @@
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="B111" s="3">
-        <v>6159</v>
+        <v>0</v>
       </c>
       <c r="C111" s="3">
-        <v>2420</v>
+        <v>0</v>
       </c>
       <c r="D111" s="6">
-        <v>3450</v>
+        <v>0</v>
       </c>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
@@ -4000,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="D113" s="6">
-        <v>0</v>
+        <v>725</v>
       </c>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
@@ -4020,13 +4017,13 @@
         <v>107</v>
       </c>
       <c r="B114" s="3">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C114" s="3">
         <v>0</v>
       </c>
       <c r="D114" s="6">
-        <v>725</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
@@ -4043,16 +4040,16 @@
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="B115" s="3">
-        <v>7.4</v>
+        <v>6263.4</v>
       </c>
       <c r="C115" s="3">
-        <v>0</v>
+        <v>2584.9560000000001</v>
       </c>
       <c r="D115" s="6">
-        <v>0.90500000000000003</v>
+        <v>5087.6880000000001</v>
       </c>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
@@ -4069,16 +4066,16 @@
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="B116" s="3">
-        <v>6263.4</v>
+        <v>1646</v>
       </c>
       <c r="C116" s="3">
-        <v>2584.9560000000001</v>
+        <v>813</v>
       </c>
       <c r="D116" s="6">
-        <v>5087.6880000000001</v>
+        <v>17200</v>
       </c>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
@@ -4098,13 +4095,13 @@
         <v>109</v>
       </c>
       <c r="B117" s="3">
-        <v>1646</v>
+        <v>2434.8000000000002</v>
       </c>
       <c r="C117" s="3">
-        <v>813</v>
+        <v>672</v>
       </c>
       <c r="D117" s="6">
-        <v>17200</v>
+        <v>3700</v>
       </c>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
@@ -4124,13 +4121,13 @@
         <v>110</v>
       </c>
       <c r="B118" s="3">
-        <v>2434.8000000000002</v>
+        <v>8077</v>
       </c>
       <c r="C118" s="3">
-        <v>672</v>
+        <v>561</v>
       </c>
       <c r="D118" s="6">
-        <v>3700</v>
+        <v>20694</v>
       </c>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
@@ -4150,13 +4147,13 @@
         <v>111</v>
       </c>
       <c r="B119" s="3">
-        <v>8077</v>
+        <v>125</v>
       </c>
       <c r="C119" s="3">
-        <v>561</v>
+        <v>0</v>
       </c>
       <c r="D119" s="6">
-        <v>20694</v>
+        <v>4784</v>
       </c>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
@@ -4176,13 +4173,13 @@
         <v>112</v>
       </c>
       <c r="B120" s="3">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="C120" s="3">
         <v>0</v>
       </c>
       <c r="D120" s="6">
-        <v>4784</v>
+        <v>500</v>
       </c>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
@@ -4208,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="D121" s="6">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
@@ -4234,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="D122" s="6">
-        <v>80</v>
+        <v>50.320999999999998</v>
       </c>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
@@ -4260,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="D123" s="6">
-        <v>50.320999999999998</v>
+        <v>0</v>
       </c>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
@@ -4286,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="D124" s="6">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
@@ -4312,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="D125" s="6">
-        <v>190</v>
+        <v>305</v>
       </c>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
@@ -4338,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="D126" s="6">
-        <v>305</v>
+        <v>100</v>
       </c>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
@@ -4364,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="D127" s="6">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
@@ -4390,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="D128" s="6">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
@@ -4416,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="D129" s="6">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
@@ -4442,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="D130" s="6">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
@@ -4468,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="D131" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
@@ -4494,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="D132" s="6">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
@@ -4520,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="D133" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
@@ -4572,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="D135" s="6">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
@@ -4589,7 +4586,7 @@
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="B136" s="3">
         <v>0</v>
@@ -4598,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="D136" s="6">
-        <v>1.2</v>
+        <v>2523.5210000000002</v>
       </c>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
@@ -4615,7 +4612,7 @@
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="B137" s="3">
         <v>0</v>
@@ -4624,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="D137" s="6">
-        <v>2523.5210000000002</v>
+        <v>0</v>
       </c>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
@@ -4644,10 +4641,10 @@
         <v>129</v>
       </c>
       <c r="B138" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C138" s="3">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D138" s="6">
         <v>0</v>
@@ -4670,10 +4667,10 @@
         <v>130</v>
       </c>
       <c r="B139" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C139" s="3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D139" s="6">
         <v>0</v>
@@ -4722,13 +4719,13 @@
         <v>132</v>
       </c>
       <c r="B141" s="3">
-        <v>0</v>
+        <v>7852</v>
       </c>
       <c r="C141" s="3">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="D141" s="6">
-        <v>0</v>
+        <v>3233.3090000000002</v>
       </c>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
@@ -4748,13 +4745,13 @@
         <v>133</v>
       </c>
       <c r="B142" s="3">
-        <v>7852</v>
+        <v>0</v>
       </c>
       <c r="C142" s="3">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="D142" s="6">
-        <v>3233.3090000000002</v>
+        <v>20</v>
       </c>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
@@ -4780,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="D143" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
@@ -4800,13 +4797,13 @@
         <v>135</v>
       </c>
       <c r="B144" s="3">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="C144" s="3">
         <v>0</v>
       </c>
       <c r="D144" s="6">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
@@ -4826,13 +4823,13 @@
         <v>136</v>
       </c>
       <c r="B145" s="3">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="C145" s="3">
         <v>0</v>
       </c>
       <c r="D145" s="6">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
@@ -4858,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="D146" s="6">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
@@ -4878,13 +4875,13 @@
         <v>138</v>
       </c>
       <c r="B147" s="3">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="C147" s="3">
         <v>0</v>
       </c>
       <c r="D147" s="6">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
@@ -4904,13 +4901,13 @@
         <v>139</v>
       </c>
       <c r="B148" s="3">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="C148" s="3">
         <v>0</v>
       </c>
       <c r="D148" s="6">
-        <v>1200</v>
+        <v>38</v>
       </c>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
@@ -4930,13 +4927,13 @@
         <v>140</v>
       </c>
       <c r="B149" s="3">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C149" s="3">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D149" s="6">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
@@ -4956,13 +4953,13 @@
         <v>141</v>
       </c>
       <c r="B150" s="3">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C150" s="3">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D150" s="6">
-        <v>163</v>
+        <v>854.5</v>
       </c>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
@@ -4988,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="D151" s="6">
-        <v>854.5</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
@@ -5014,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="D152" s="6">
-        <v>0.28799999999999998</v>
+        <v>0</v>
       </c>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
@@ -5034,13 +5031,13 @@
         <v>144</v>
       </c>
       <c r="B153" s="3">
-        <v>0</v>
+        <v>971</v>
       </c>
       <c r="C153" s="3">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D153" s="6">
-        <v>0</v>
+        <v>2842</v>
       </c>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
@@ -5060,13 +5057,13 @@
         <v>145</v>
       </c>
       <c r="B154" s="3">
-        <v>971</v>
+        <v>0</v>
       </c>
       <c r="C154" s="3">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="D154" s="6">
-        <v>2842</v>
+        <v>0</v>
       </c>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
@@ -5109,16 +5106,16 @@
     </row>
     <row r="156" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="B156" s="3">
-        <v>0</v>
+        <v>9008.6</v>
       </c>
       <c r="C156" s="3">
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="D156" s="6">
-        <v>0</v>
+        <v>8559.0969999999998</v>
       </c>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
@@ -5135,16 +5132,16 @@
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B157" s="3">
-        <v>9008.6</v>
+        <v>0</v>
       </c>
       <c r="C157" s="3">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="D157" s="6">
-        <v>8559.0969999999998</v>
+        <v>0</v>
       </c>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
@@ -5161,16 +5158,16 @@
     </row>
     <row r="158" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="B158" s="3">
-        <v>0</v>
+        <v>46394.152000000002</v>
       </c>
       <c r="C158" s="3">
-        <v>0</v>
+        <v>5623.75</v>
       </c>
       <c r="D158" s="6">
-        <v>0</v>
+        <v>47787</v>
       </c>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
@@ -5190,13 +5187,13 @@
         <v>149</v>
       </c>
       <c r="B159" s="3">
-        <v>46394.152000000002</v>
+        <v>1323.1130000000001</v>
       </c>
       <c r="C159" s="3">
-        <v>5623.75</v>
+        <v>304.39800000000002</v>
       </c>
       <c r="D159" s="6">
-        <v>47787</v>
+        <v>1466.308</v>
       </c>
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
@@ -5216,13 +5213,13 @@
         <v>150</v>
       </c>
       <c r="B160" s="3">
-        <v>1323.1130000000001</v>
+        <v>396</v>
       </c>
       <c r="C160" s="3">
-        <v>304.39800000000002</v>
+        <v>119</v>
       </c>
       <c r="D160" s="6">
-        <v>1466.308</v>
+        <v>1092.03</v>
       </c>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
@@ -5242,13 +5239,13 @@
         <v>151</v>
       </c>
       <c r="B161" s="3">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="C161" s="3">
-        <v>119</v>
+        <v>101.336</v>
       </c>
       <c r="D161" s="6">
-        <v>1092.03</v>
+        <v>1258.2650000000001</v>
       </c>
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
@@ -5271,10 +5268,10 @@
         <v>0</v>
       </c>
       <c r="C162" s="3">
-        <v>101.336</v>
+        <v>4.83</v>
       </c>
       <c r="D162" s="6">
-        <v>1258.2650000000001</v>
+        <v>590</v>
       </c>
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
@@ -5294,13 +5291,13 @@
         <v>153</v>
       </c>
       <c r="B163" s="3">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="C163" s="3">
-        <v>4.83</v>
+        <v>449</v>
       </c>
       <c r="D163" s="6">
-        <v>590</v>
+        <v>4451.8</v>
       </c>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
@@ -5320,13 +5317,13 @@
         <v>154</v>
       </c>
       <c r="B164" s="3">
-        <v>1250</v>
+        <v>8150</v>
       </c>
       <c r="C164" s="3">
-        <v>449</v>
+        <v>3510</v>
       </c>
       <c r="D164" s="6">
-        <v>4451.8</v>
+        <v>620</v>
       </c>
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
@@ -5346,13 +5343,13 @@
         <v>155</v>
       </c>
       <c r="B165" s="3">
-        <v>8150</v>
+        <v>1523.2</v>
       </c>
       <c r="C165" s="3">
-        <v>3510</v>
+        <v>0</v>
       </c>
       <c r="D165" s="6">
-        <v>620</v>
+        <v>6938</v>
       </c>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
@@ -5372,13 +5369,13 @@
         <v>156</v>
       </c>
       <c r="B166" s="3">
-        <v>1523.2</v>
+        <v>0</v>
       </c>
       <c r="C166" s="3">
         <v>0</v>
       </c>
       <c r="D166" s="6">
-        <v>6938</v>
+        <v>0</v>
       </c>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
@@ -5404,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="D167" s="6">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
@@ -5430,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="D168" s="6">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
@@ -5456,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="D169" s="6">
-        <v>0</v>
+        <v>369</v>
       </c>
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
@@ -5482,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="D170" s="6">
-        <v>369</v>
+        <v>33</v>
       </c>
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
@@ -5502,13 +5499,13 @@
         <v>161</v>
       </c>
       <c r="B171" s="3">
-        <v>0</v>
+        <v>21.582999999999998</v>
       </c>
       <c r="C171" s="3">
-        <v>0</v>
+        <v>347.565</v>
       </c>
       <c r="D171" s="6">
-        <v>33</v>
+        <v>5143.5969999999998</v>
       </c>
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
@@ -5528,13 +5525,13 @@
         <v>162</v>
       </c>
       <c r="B172" s="3">
-        <v>21.582999999999998</v>
+        <v>0</v>
       </c>
       <c r="C172" s="3">
-        <v>347.565</v>
+        <v>0</v>
       </c>
       <c r="D172" s="6">
-        <v>5143.5969999999998</v>
+        <v>80</v>
       </c>
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
@@ -5560,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="D173" s="6">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
@@ -5583,10 +5580,10 @@
         <v>0</v>
       </c>
       <c r="C174" s="3">
-        <v>0</v>
+        <v>885</v>
       </c>
       <c r="D174" s="6">
-        <v>0</v>
+        <v>604</v>
       </c>
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
@@ -5606,13 +5603,13 @@
         <v>165</v>
       </c>
       <c r="B175" s="3">
-        <v>0</v>
+        <v>2666.4</v>
       </c>
       <c r="C175" s="3">
-        <v>885</v>
+        <v>0</v>
       </c>
       <c r="D175" s="6">
-        <v>604</v>
+        <v>875.52499999999998</v>
       </c>
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
@@ -5632,13 +5629,13 @@
         <v>166</v>
       </c>
       <c r="B176" s="3">
-        <v>2666.4</v>
+        <v>8109</v>
       </c>
       <c r="C176" s="3">
-        <v>0</v>
+        <v>3405</v>
       </c>
       <c r="D176" s="6">
-        <v>875.52499999999998</v>
+        <v>1148</v>
       </c>
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
@@ -5654,17 +5651,17 @@
       <c r="V176" s="3"/>
     </row>
     <row r="177" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A177" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B177" s="3">
-        <v>8109</v>
-      </c>
-      <c r="C177" s="3">
-        <v>3405</v>
-      </c>
-      <c r="D177" s="6">
-        <v>1148</v>
+      <c r="A177" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B177" s="4">
+        <v>23439.295999999998</v>
+      </c>
+      <c r="C177" s="4">
+        <v>9126.1290000000008</v>
+      </c>
+      <c r="D177" s="7">
+        <v>24979.525000000001</v>
       </c>
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
@@ -5680,18 +5677,6 @@
       <c r="V177" s="3"/>
     </row>
     <row r="178" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A178" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B178" s="4">
-        <v>23439.295999999998</v>
-      </c>
-      <c r="C178" s="4">
-        <v>9126.1290000000008</v>
-      </c>
-      <c r="D178" s="7">
-        <v>24979.525000000001</v>
-      </c>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
@@ -5718,20 +5703,6 @@
       <c r="T179" s="3"/>
       <c r="U179" s="3"/>
       <c r="V179" s="3"/>
-    </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="J180" s="3"/>
-      <c r="K180" s="3"/>
-      <c r="L180" s="3"/>
-      <c r="M180" s="3"/>
-      <c r="N180" s="3"/>
-      <c r="O180" s="3"/>
-      <c r="P180" s="3"/>
-      <c r="Q180" s="3"/>
-      <c r="S180" s="3"/>
-      <c r="T180" s="3"/>
-      <c r="U180" s="3"/>
-      <c r="V180" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5749,8 +5720,8 @@
   </sheetPr>
   <dimension ref="A1:K177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5765,24 +5736,24 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>170</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -6646,7 +6617,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B53">
         <v>741.78800000000001</v>
@@ -6697,7 +6668,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B56">
         <v>924.05899999999997</v>
@@ -7190,7 +7161,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B85">
         <v>7245.06</v>
@@ -7309,7 +7280,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -7326,7 +7297,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -7343,7 +7314,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B94">
         <v>818.30200000000002</v>
@@ -7360,7 +7331,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B95">
         <v>150</v>
@@ -7377,7 +7348,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B96">
         <v>555.24099999999999</v>
@@ -7394,7 +7365,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B97">
         <v>269.00700000000001</v>
@@ -7411,7 +7382,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B98">
         <v>1901.5309999999999</v>
@@ -7428,7 +7399,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -7445,7 +7416,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -7462,7 +7433,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B101">
         <v>71.748999999999995</v>
@@ -7479,7 +7450,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B102">
         <v>0.40400000000000003</v>
@@ -7496,7 +7467,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -7513,7 +7484,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B104">
         <v>3.0000000000000001E-3</v>
@@ -7530,7 +7501,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B105">
         <v>0.1</v>
@@ -7547,7 +7518,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B106">
         <v>4.7329999999999997</v>
@@ -7564,7 +7535,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -7581,7 +7552,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -7598,7 +7569,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B109">
         <v>69.811999999999998</v>
@@ -7615,7 +7586,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B110">
         <v>2492</v>
@@ -7632,7 +7603,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -7649,7 +7620,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -7666,7 +7637,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B113">
         <v>8</v>
@@ -7683,7 +7654,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B114">
         <v>7.0430000000000001</v>
@@ -7700,7 +7671,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B115">
         <v>161.84399999999999</v>
@@ -7717,7 +7688,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B116">
         <v>7933.9189999999999</v>
@@ -7734,7 +7705,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B117">
         <v>6320</v>
@@ -7751,7 +7722,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B118">
         <v>10465</v>
@@ -7768,7 +7739,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B119">
         <v>658</v>
@@ -7785,7 +7756,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -7802,7 +7773,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -7819,7 +7790,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -7836,7 +7807,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -7853,7 +7824,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -7870,7 +7841,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B125">
         <v>141</v>
@@ -7887,7 +7858,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B126">
         <v>3.2</v>
@@ -7904,7 +7875,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -7921,7 +7892,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -7938,7 +7909,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -7955,7 +7926,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -7972,7 +7943,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -7989,7 +7960,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -8006,7 +7977,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -8023,7 +7994,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -8040,7 +8011,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -8057,7 +8028,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B136">
         <v>148.19999999999999</v>
@@ -8074,7 +8045,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -8091,7 +8062,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B138">
         <v>50</v>
@@ -8108,7 +8079,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -8125,7 +8096,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -8142,7 +8113,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B141">
         <v>4973.491</v>
@@ -8159,7 +8130,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -8176,7 +8147,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -8193,7 +8164,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B144">
         <v>11</v>
@@ -8210,7 +8181,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B145">
         <v>19.100000000000001</v>
@@ -8227,7 +8198,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -8244,7 +8215,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B147">
         <v>450</v>
@@ -8261,7 +8232,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -8278,7 +8249,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B149">
         <v>199</v>
@@ -8295,7 +8266,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B150">
         <v>165</v>
@@ -8312,7 +8283,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -8329,7 +8300,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -8346,7 +8317,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B153">
         <v>1306</v>
@@ -8363,7 +8334,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -8380,7 +8351,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B155">
         <v>7173.5910000000003</v>
@@ -8397,7 +8368,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B156">
         <v>14347.182000000001</v>
@@ -8414,7 +8385,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B157">
         <v>3666</v>
@@ -8431,7 +8402,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B158">
         <v>12970.932000000001</v>
@@ -8448,7 +8419,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B159">
         <v>2398.2600000000002</v>
@@ -8465,7 +8436,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B160">
         <v>1353</v>
@@ -8482,7 +8453,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B161">
         <v>651.11500000000001</v>
@@ -8499,7 +8470,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B162">
         <v>28</v>
@@ -8516,7 +8487,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B163">
         <v>1030</v>
@@ -8533,7 +8504,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B164">
         <v>5520</v>
@@ -8550,7 +8521,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B165">
         <v>2110.0030000000002</v>
@@ -8567,7 +8538,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B166">
         <v>961.98900000000003</v>
@@ -8584,7 +8555,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B167">
         <v>53.457999999999998</v>
@@ -8601,7 +8572,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -8618,7 +8589,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -8635,7 +8606,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -8652,7 +8623,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B171">
         <v>2456.991</v>
@@ -8669,7 +8640,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -8686,7 +8657,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B173">
         <v>661</v>
@@ -8703,7 +8674,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B174">
         <v>973</v>
@@ -8720,7 +8691,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B175">
         <v>1537.5</v>
@@ -8737,7 +8708,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B176">
         <v>3486.9989999999998</v>
@@ -8754,7 +8725,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B177" s="13">
         <v>21598.326000000001</v>
@@ -8793,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
